--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3495.045079806427</v>
+        <v>2728.162977181742</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>800190.5120470802</v>
+        <v>3587550.266388206</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25206690.91176504</v>
+        <v>23469182.3233879</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4158309.589860312</v>
+        <v>4780087.267430033</v>
       </c>
     </row>
     <row r="11">
@@ -8690,22 +8692,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>210.0462273461148</v>
+        <v>171.1545065408216</v>
       </c>
       <c r="L11" t="n">
-        <v>270.6444670286918</v>
+        <v>166.8574014294323</v>
       </c>
       <c r="M11" t="n">
-        <v>281.0224045372727</v>
+        <v>146.634025552594</v>
       </c>
       <c r="N11" t="n">
-        <v>279.8839375878409</v>
+        <v>143.3210141324655</v>
       </c>
       <c r="O11" t="n">
-        <v>246.758517458259</v>
+        <v>151.7673217841382</v>
       </c>
       <c r="P11" t="n">
-        <v>208.5255628951208</v>
+        <v>172.0462827785706</v>
       </c>
       <c r="Q11" t="n">
         <v>137.5801139476182</v>
@@ -8769,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>168.166555548718</v>
+        <v>102.0417410663602</v>
       </c>
       <c r="L12" t="n">
-        <v>169.0363433314465</v>
+        <v>80.12336995096688</v>
       </c>
       <c r="M12" t="n">
-        <v>173.4035213848624</v>
+        <v>69.64627520386433</v>
       </c>
       <c r="N12" t="n">
-        <v>160.2368887416667</v>
+        <v>53.73349699357935</v>
       </c>
       <c r="O12" t="n">
-        <v>173.9674182222222</v>
+        <v>76.53762189920677</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4487770454829</v>
+        <v>85.2527759336897</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>118.5058084761395</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8857,7 +8859,7 @@
         <v>115.6742602693208</v>
       </c>
       <c r="N13" t="n">
-        <v>111.3378805152112</v>
+        <v>103.2407731823193</v>
       </c>
       <c r="O13" t="n">
         <v>105.6509998050918</v>
@@ -8927,22 +8929,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>210.0462273461148</v>
+        <v>155.446919716826</v>
       </c>
       <c r="L14" t="n">
-        <v>270.6444670286918</v>
+        <v>147.3707510144273</v>
       </c>
       <c r="M14" t="n">
-        <v>281.0224045372727</v>
+        <v>124.9513722903362</v>
       </c>
       <c r="N14" t="n">
-        <v>279.8839375878409</v>
+        <v>121.2875128719083</v>
       </c>
       <c r="O14" t="n">
-        <v>246.758517458259</v>
+        <v>130.9617113403307</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>154.2891756195906</v>
       </c>
       <c r="Q14" t="n">
         <v>137.5801139476182</v>
@@ -9006,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>168.166555548718</v>
+        <v>91.37295083848241</v>
       </c>
       <c r="L15" t="n">
-        <v>169.0363433314465</v>
+        <v>65.7778648790954</v>
       </c>
       <c r="M15" t="n">
-        <v>173.4035213848624</v>
+        <v>52.90574741875142</v>
       </c>
       <c r="N15" t="n">
-        <v>160.2368887416667</v>
+        <v>36.5498972509896</v>
       </c>
       <c r="O15" t="n">
-        <v>173.9674182222222</v>
+        <v>60.81798522344044</v>
       </c>
       <c r="P15" t="n">
-        <v>163.4487770454829</v>
+        <v>72.63638163373737</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>110.0720830017077</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9091,10 +9093,10 @@
         <v>105.2836065989273</v>
       </c>
       <c r="M16" t="n">
-        <v>115.6742602693208</v>
+        <v>106.9915434517933</v>
       </c>
       <c r="N16" t="n">
-        <v>111.3378805152112</v>
+        <v>94.76451196388629</v>
       </c>
       <c r="O16" t="n">
         <v>105.6509998050918</v>
@@ -9164,22 +9166,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L17" t="n">
-        <v>270.6444670286918</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M17" t="n">
-        <v>281.0224045372727</v>
+        <v>105.8098167320197</v>
       </c>
       <c r="N17" t="n">
-        <v>279.8839375878409</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O17" t="n">
-        <v>246.758517458259</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P17" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q17" t="n">
         <v>137.5801139476182</v>
@@ -9243,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>168.166555548718</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L18" t="n">
-        <v>169.0363433314465</v>
+        <v>53.11358071497433</v>
       </c>
       <c r="M18" t="n">
-        <v>173.4035213848624</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N18" t="n">
-        <v>160.2368887416667</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O18" t="n">
-        <v>173.9674182222222</v>
+        <v>46.94061075518319</v>
       </c>
       <c r="P18" t="n">
-        <v>163.4487770454829</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9325,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>105.2836065989273</v>
+        <v>98.01365355847472</v>
       </c>
       <c r="M19" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326795</v>
       </c>
       <c r="N19" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856662</v>
       </c>
       <c r="O19" t="n">
-        <v>105.6509998050918</v>
+        <v>105.6509998050919</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9401,22 +9403,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L20" t="n">
-        <v>270.6444670286918</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M20" t="n">
-        <v>281.0224045372727</v>
+        <v>105.8098167320197</v>
       </c>
       <c r="N20" t="n">
-        <v>279.8839375878409</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O20" t="n">
-        <v>246.758517458259</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P20" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q20" t="n">
         <v>137.5801139476182</v>
@@ -9480,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>168.166555548718</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L21" t="n">
-        <v>169.0363433314465</v>
+        <v>53.11358071497433</v>
       </c>
       <c r="M21" t="n">
-        <v>173.4035213848624</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N21" t="n">
-        <v>160.2368887416667</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O21" t="n">
-        <v>173.9674182222222</v>
+        <v>46.94061075518319</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4487770454829</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,13 +9564,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>105.2836065989273</v>
+        <v>98.01365355847472</v>
       </c>
       <c r="M22" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326795</v>
       </c>
       <c r="N22" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856662</v>
       </c>
       <c r="O22" t="n">
         <v>105.6509998050918</v>
@@ -9638,22 +9640,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L23" t="n">
-        <v>270.6444670286918</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M23" t="n">
-        <v>281.0224045372727</v>
+        <v>105.8098167320197</v>
       </c>
       <c r="N23" t="n">
-        <v>279.8839375878409</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O23" t="n">
-        <v>246.758517458259</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P23" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q23" t="n">
         <v>137.5801139476182</v>
@@ -9717,25 +9719,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>168.166555548718</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L24" t="n">
-        <v>169.0363433314465</v>
+        <v>53.11358071497433</v>
       </c>
       <c r="M24" t="n">
-        <v>173.4035213848624</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N24" t="n">
-        <v>160.2368887416667</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O24" t="n">
-        <v>173.9674182222222</v>
+        <v>46.94061075518319</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4487770454829</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9799,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>105.2836065989273</v>
+        <v>98.01365355847472</v>
       </c>
       <c r="M25" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326795</v>
       </c>
       <c r="N25" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856662</v>
       </c>
       <c r="O25" t="n">
-        <v>105.6509998050918</v>
+        <v>105.6509998050919</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9875,22 +9877,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L26" t="n">
-        <v>270.6444670286918</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M26" t="n">
-        <v>281.0224045372727</v>
+        <v>105.8098167320197</v>
       </c>
       <c r="N26" t="n">
-        <v>279.8839375878409</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O26" t="n">
-        <v>246.758517458259</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P26" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q26" t="n">
         <v>137.5801139476182</v>
@@ -9954,25 +9956,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>168.166555548718</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L27" t="n">
-        <v>169.0363433314465</v>
+        <v>53.11358071497433</v>
       </c>
       <c r="M27" t="n">
-        <v>173.4035213848624</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N27" t="n">
-        <v>160.2368887416667</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O27" t="n">
-        <v>173.9674182222222</v>
+        <v>46.94061075518319</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4487770454829</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,13 +10038,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>105.2836065989273</v>
+        <v>98.01365355847472</v>
       </c>
       <c r="M28" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326795</v>
       </c>
       <c r="N28" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856662</v>
       </c>
       <c r="O28" t="n">
         <v>105.6509998050918</v>
@@ -10112,22 +10114,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L29" t="n">
-        <v>270.6444670286918</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M29" t="n">
-        <v>281.0224045372727</v>
+        <v>105.8098167320197</v>
       </c>
       <c r="N29" t="n">
-        <v>279.8839375878409</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O29" t="n">
-        <v>246.758517458259</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P29" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q29" t="n">
         <v>137.5801139476182</v>
@@ -10191,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>168.166555548718</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L30" t="n">
-        <v>169.0363433314465</v>
+        <v>53.11358071497433</v>
       </c>
       <c r="M30" t="n">
-        <v>173.4035213848624</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N30" t="n">
-        <v>160.2368887416667</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O30" t="n">
-        <v>173.9674182222222</v>
+        <v>46.94061075518319</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4487770454829</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,13 +10275,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>105.2836065989273</v>
+        <v>98.01365355847472</v>
       </c>
       <c r="M31" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326795</v>
       </c>
       <c r="N31" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856662</v>
       </c>
       <c r="O31" t="n">
         <v>105.6509998050918</v>
@@ -10349,22 +10351,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L32" t="n">
-        <v>270.6444670286918</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M32" t="n">
-        <v>281.0224045372727</v>
+        <v>105.8098167320197</v>
       </c>
       <c r="N32" t="n">
-        <v>279.8839375878409</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O32" t="n">
-        <v>246.758517458259</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P32" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q32" t="n">
         <v>137.5801139476182</v>
@@ -10428,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>168.166555548718</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L33" t="n">
-        <v>169.0363433314465</v>
+        <v>53.11358071497432</v>
       </c>
       <c r="M33" t="n">
-        <v>173.4035213848624</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N33" t="n">
-        <v>160.2368887416667</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O33" t="n">
-        <v>173.9674182222222</v>
+        <v>46.94061075518317</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4487770454829</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,13 +10512,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2836065989273</v>
+        <v>98.0136535584747</v>
       </c>
       <c r="M34" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326795</v>
       </c>
       <c r="N34" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856661</v>
       </c>
       <c r="O34" t="n">
         <v>105.6509998050918</v>
@@ -10586,22 +10588,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L35" t="n">
-        <v>270.6444670286918</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M35" t="n">
-        <v>281.0224045372727</v>
+        <v>105.8098167320197</v>
       </c>
       <c r="N35" t="n">
-        <v>279.8839375878409</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O35" t="n">
-        <v>246.758517458259</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P35" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q35" t="n">
         <v>137.5801139476182</v>
@@ -10665,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>168.166555548718</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L36" t="n">
-        <v>169.0363433314465</v>
+        <v>53.11358071497433</v>
       </c>
       <c r="M36" t="n">
-        <v>173.4035213848624</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N36" t="n">
-        <v>160.2368887416667</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O36" t="n">
-        <v>173.9674182222222</v>
+        <v>46.94061075518319</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4487770454829</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,13 +10749,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2836065989273</v>
+        <v>98.01365355847472</v>
       </c>
       <c r="M37" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326795</v>
       </c>
       <c r="N37" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856662</v>
       </c>
       <c r="O37" t="n">
         <v>105.6509998050918</v>
@@ -10823,22 +10825,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L38" t="n">
-        <v>270.6444670286918</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M38" t="n">
-        <v>281.0224045372727</v>
+        <v>105.8098167320197</v>
       </c>
       <c r="N38" t="n">
-        <v>279.8839375878409</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O38" t="n">
-        <v>246.758517458259</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P38" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
@@ -10902,25 +10904,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>168.166555548718</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L39" t="n">
-        <v>169.0363433314465</v>
+        <v>53.11358071497433</v>
       </c>
       <c r="M39" t="n">
-        <v>173.4035213848624</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N39" t="n">
-        <v>160.2368887416667</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O39" t="n">
-        <v>173.9674182222222</v>
+        <v>46.94061075518319</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4487770454829</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10984,13 +10986,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>105.2836065989273</v>
+        <v>98.01365355847472</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326795</v>
       </c>
       <c r="N40" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856662</v>
       </c>
       <c r="O40" t="n">
         <v>105.6509998050918</v>
@@ -11060,22 +11062,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L41" t="n">
-        <v>270.6444670286918</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M41" t="n">
-        <v>281.0224045372727</v>
+        <v>105.8098167320197</v>
       </c>
       <c r="N41" t="n">
-        <v>279.8839375878409</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O41" t="n">
-        <v>246.758517458259</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q41" t="n">
         <v>137.5801139476182</v>
@@ -11139,25 +11141,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>168.166555548718</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L42" t="n">
-        <v>169.0363433314465</v>
+        <v>53.11358071497433</v>
       </c>
       <c r="M42" t="n">
-        <v>173.4035213848624</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N42" t="n">
-        <v>160.2368887416667</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O42" t="n">
-        <v>173.9674182222222</v>
+        <v>46.94061075518319</v>
       </c>
       <c r="P42" t="n">
-        <v>163.4487770454829</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11221,13 +11223,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2836065989273</v>
+        <v>98.01365355847472</v>
       </c>
       <c r="M43" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326795</v>
       </c>
       <c r="N43" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856662</v>
       </c>
       <c r="O43" t="n">
         <v>105.6509998050918</v>
@@ -11297,25 +11299,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461148</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L44" t="n">
-        <v>270.6444670286918</v>
+        <v>85.78632439852493</v>
       </c>
       <c r="M44" t="n">
-        <v>281.0224045372727</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N44" t="n">
-        <v>279.8839375878409</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O44" t="n">
-        <v>246.758517458259</v>
+        <v>65.20892354519972</v>
       </c>
       <c r="P44" t="n">
-        <v>208.5255628951208</v>
+        <v>98.17069248095632</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11376,25 +11378,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>168.166555548718</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0363433314465</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M45" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>173.9674182222222</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4487770454829</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11458,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2836065989273</v>
+        <v>79.25802099849831</v>
       </c>
       <c r="M46" t="n">
-        <v>115.6742602693208</v>
+        <v>79.55121249250526</v>
       </c>
       <c r="N46" t="n">
-        <v>111.3378805152112</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O46" t="n">
-        <v>105.6509998050918</v>
+        <v>87.8197306940173</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -23270,22 +23272,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>419.2448920946117</v>
+        <v>418.4795442826639</v>
       </c>
       <c r="H11" t="n">
-        <v>351.1867109187684</v>
+        <v>343.348592639658</v>
       </c>
       <c r="I11" t="n">
-        <v>256.6898085504863</v>
+        <v>227.1837370303688</v>
       </c>
       <c r="J11" t="n">
-        <v>111.3013968910535</v>
+        <v>46.34345803674904</v>
       </c>
       <c r="K11" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23294,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.6328276992101</v>
+        <v>50.98387417173238</v>
       </c>
       <c r="R11" t="n">
-        <v>220.4301160555486</v>
+        <v>172.3538365632827</v>
       </c>
       <c r="S11" t="n">
-        <v>236.785106778059</v>
+        <v>219.3447435132985</v>
       </c>
       <c r="T11" t="n">
-        <v>224.246294399988</v>
+        <v>220.8959843531865</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1830790232068</v>
+        <v>250.121851198251</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.9622183950918</v>
+        <v>148.5527212143879</v>
       </c>
       <c r="H12" t="n">
-        <v>127.8372169228968</v>
+        <v>123.8823362566243</v>
       </c>
       <c r="I12" t="n">
-        <v>114.855819447717</v>
+        <v>100.7569033576904</v>
       </c>
       <c r="J12" t="n">
-        <v>73.03491363274843</v>
+        <v>34.34641025755577</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>148.2309527983001</v>
+        <v>122.8062067893299</v>
       </c>
       <c r="S12" t="n">
-        <v>195.63287444794</v>
+        <v>188.0266439203906</v>
       </c>
       <c r="T12" t="n">
-        <v>215.8480604164874</v>
+        <v>214.1974994118079</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2154455981887</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.883215127945</v>
+        <v>168.5399064475446</v>
       </c>
       <c r="H13" t="n">
-        <v>167.4464568944399</v>
+        <v>164.3941306268804</v>
       </c>
       <c r="I13" t="n">
-        <v>170.3394424699794</v>
+        <v>160.0152141539397</v>
       </c>
       <c r="J13" t="n">
-        <v>133.1381297789385</v>
+        <v>108.8662060746335</v>
       </c>
       <c r="K13" t="n">
-        <v>88.2262143767183</v>
+        <v>48.33998769020441</v>
       </c>
       <c r="L13" t="n">
-        <v>59.27569846418345</v>
+        <v>8.235060652661652</v>
       </c>
       <c r="M13" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>63.26597710615634</v>
+        <v>14.74085562556805</v>
       </c>
       <c r="P13" t="n">
-        <v>80.54391191246145</v>
+        <v>39.02228751204042</v>
       </c>
       <c r="Q13" t="n">
-        <v>142.493864959141</v>
+        <v>113.7464444576167</v>
       </c>
       <c r="R13" t="n">
-        <v>211.6331360021768</v>
+        <v>196.1967293361754</v>
       </c>
       <c r="S13" t="n">
-        <v>238.6174795018098</v>
+        <v>232.6345454988327</v>
       </c>
       <c r="T13" t="n">
-        <v>224.541075671891</v>
+        <v>223.0742113101803</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6477823242233</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,22 +23509,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>419.2448920946117</v>
+        <v>418.3560606053038</v>
       </c>
       <c r="H14" t="n">
-        <v>351.1867109187684</v>
+        <v>342.0839654288939</v>
       </c>
       <c r="I14" t="n">
-        <v>256.6898085504863</v>
+        <v>222.4231325589433</v>
       </c>
       <c r="J14" t="n">
-        <v>111.3013968910535</v>
+        <v>35.8629352754067</v>
       </c>
       <c r="K14" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23531,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.6328276992101</v>
+        <v>37.64902620821118</v>
       </c>
       <c r="R14" t="n">
-        <v>220.4301160555486</v>
+        <v>164.5970550153109</v>
       </c>
       <c r="S14" t="n">
-        <v>236.785106778059</v>
+        <v>216.5308592154551</v>
       </c>
       <c r="T14" t="n">
-        <v>224.246294399988</v>
+        <v>220.3554345555427</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1119725040622</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.9622183950918</v>
+        <v>148.4866516222985</v>
       </c>
       <c r="H15" t="n">
-        <v>127.8372169228968</v>
+        <v>123.2442430909186</v>
       </c>
       <c r="I15" t="n">
-        <v>114.855819447717</v>
+        <v>98.4821388932082</v>
       </c>
       <c r="J15" t="n">
-        <v>73.03491363274843</v>
+        <v>28.10428269966903</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>148.2309527983001</v>
+        <v>118.7040965015325</v>
       </c>
       <c r="S15" t="n">
-        <v>195.63287444794</v>
+        <v>186.7994302252209</v>
       </c>
       <c r="T15" t="n">
-        <v>215.8480604164874</v>
+        <v>213.9311925910615</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2110989144986</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.883215127945</v>
+        <v>168.4845159209583</v>
       </c>
       <c r="H16" t="n">
-        <v>167.4464568944399</v>
+        <v>163.9016584905037</v>
       </c>
       <c r="I16" t="n">
-        <v>170.3394424699794</v>
+        <v>158.3494699544163</v>
       </c>
       <c r="J16" t="n">
-        <v>133.1381297789385</v>
+        <v>104.9500958449802</v>
       </c>
       <c r="K16" t="n">
-        <v>88.2262143767183</v>
+        <v>41.90461560135667</v>
       </c>
       <c r="L16" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>63.26597710615634</v>
+        <v>6.911656467711651</v>
       </c>
       <c r="P16" t="n">
-        <v>80.54391191246145</v>
+        <v>32.32305509654509</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.493864959141</v>
+        <v>109.1082431813745</v>
       </c>
       <c r="R16" t="n">
-        <v>211.6331360021768</v>
+        <v>193.7061698407575</v>
       </c>
       <c r="S16" t="n">
-        <v>238.6174795018098</v>
+        <v>231.6692396855056</v>
       </c>
       <c r="T16" t="n">
-        <v>224.541075671891</v>
+        <v>222.8375426965842</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6447610227732</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,22 +23746,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>419.2448920946117</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H17" t="n">
-        <v>351.1867109187684</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I17" t="n">
-        <v>256.6898085504863</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J17" t="n">
-        <v>111.3013968910535</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K17" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23768,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>133.6328276992101</v>
+        <v>25.87695523201988</v>
       </c>
       <c r="R17" t="n">
-        <v>220.4301160555486</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S17" t="n">
-        <v>236.785106778059</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T17" t="n">
-        <v>224.246294399988</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.9622183950918</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H18" t="n">
-        <v>127.8372169228968</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I18" t="n">
-        <v>114.855819447717</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J18" t="n">
-        <v>73.03491363274843</v>
+        <v>22.59370103762819</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>148.2309527983001</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S18" t="n">
-        <v>195.63287444794</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T18" t="n">
-        <v>215.8480604164874</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.883215127945</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H19" t="n">
-        <v>167.4464568944399</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I19" t="n">
-        <v>170.3394424699794</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J19" t="n">
-        <v>133.1381297789385</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K19" t="n">
-        <v>88.2262143767183</v>
+        <v>36.22343669362868</v>
       </c>
       <c r="L19" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>80.54391191246145</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q19" t="n">
-        <v>142.493864959141</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R19" t="n">
-        <v>211.6331360021768</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S19" t="n">
-        <v>238.6174795018098</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T19" t="n">
-        <v>224.541075671891</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,22 +23983,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>419.2448920946117</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H20" t="n">
-        <v>351.1867109187684</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I20" t="n">
-        <v>256.6898085504863</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J20" t="n">
-        <v>111.3013968910535</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K20" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24005,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.6328276992101</v>
+        <v>25.87695523201988</v>
       </c>
       <c r="R20" t="n">
-        <v>220.4301160555486</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S20" t="n">
-        <v>236.785106778059</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T20" t="n">
-        <v>224.246294399988</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.9622183950918</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H21" t="n">
-        <v>127.8372169228968</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I21" t="n">
-        <v>114.855819447717</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J21" t="n">
-        <v>73.03491363274843</v>
+        <v>22.59370103762819</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>148.2309527983001</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S21" t="n">
-        <v>195.63287444794</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T21" t="n">
-        <v>215.8480604164874</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.883215127945</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H22" t="n">
-        <v>167.4464568944399</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I22" t="n">
-        <v>170.3394424699794</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J22" t="n">
-        <v>133.1381297789385</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K22" t="n">
-        <v>88.2262143767183</v>
+        <v>36.22343669362868</v>
       </c>
       <c r="L22" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>80.54391191246145</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q22" t="n">
-        <v>142.493864959141</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R22" t="n">
-        <v>211.6331360021768</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S22" t="n">
-        <v>238.6174795018098</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T22" t="n">
-        <v>224.541075671891</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,22 +24220,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>419.2448920946117</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H23" t="n">
-        <v>351.1867109187684</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I23" t="n">
-        <v>256.6898085504863</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J23" t="n">
-        <v>111.3013968910535</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K23" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24242,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.6328276992101</v>
+        <v>25.87695523201988</v>
       </c>
       <c r="R23" t="n">
-        <v>220.4301160555486</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S23" t="n">
-        <v>236.785106778059</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T23" t="n">
-        <v>224.246294399988</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.9622183950918</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H24" t="n">
-        <v>127.8372169228968</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I24" t="n">
-        <v>114.855819447717</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J24" t="n">
-        <v>73.03491363274843</v>
+        <v>22.59370103762819</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>148.2309527983001</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S24" t="n">
-        <v>195.63287444794</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T24" t="n">
-        <v>215.8480604164874</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.883215127945</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H25" t="n">
-        <v>167.4464568944399</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I25" t="n">
-        <v>170.3394424699794</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J25" t="n">
-        <v>133.1381297789385</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K25" t="n">
-        <v>88.2262143767183</v>
+        <v>36.22343669362868</v>
       </c>
       <c r="L25" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>80.54391191246145</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q25" t="n">
-        <v>142.493864959141</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R25" t="n">
-        <v>211.6331360021768</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S25" t="n">
-        <v>238.6174795018098</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T25" t="n">
-        <v>224.541075671891</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,22 +24457,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>419.2448920946117</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H26" t="n">
-        <v>351.1867109187684</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I26" t="n">
-        <v>256.6898085504863</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J26" t="n">
-        <v>111.3013968910535</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K26" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.6328276992101</v>
+        <v>25.87695523201988</v>
       </c>
       <c r="R26" t="n">
-        <v>220.4301160555486</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S26" t="n">
-        <v>236.785106778059</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T26" t="n">
-        <v>224.246294399988</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.9622183950918</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H27" t="n">
-        <v>127.8372169228968</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I27" t="n">
-        <v>114.855819447717</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J27" t="n">
-        <v>73.03491363274843</v>
+        <v>22.59370103762819</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>148.2309527983001</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S27" t="n">
-        <v>195.63287444794</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T27" t="n">
-        <v>215.8480604164874</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.883215127945</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H28" t="n">
-        <v>167.4464568944399</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I28" t="n">
-        <v>170.3394424699794</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J28" t="n">
-        <v>133.1381297789385</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K28" t="n">
-        <v>88.2262143767183</v>
+        <v>36.22343669362868</v>
       </c>
       <c r="L28" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>80.54391191246145</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.493864959141</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R28" t="n">
-        <v>211.6331360021768</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S28" t="n">
-        <v>238.6174795018098</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T28" t="n">
-        <v>224.541075671891</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,22 +24694,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>419.2448920946117</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H29" t="n">
-        <v>351.1867109187684</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I29" t="n">
-        <v>256.6898085504863</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J29" t="n">
-        <v>111.3013968910535</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K29" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24716,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>133.6328276992101</v>
+        <v>25.87695523201988</v>
       </c>
       <c r="R29" t="n">
-        <v>220.4301160555486</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S29" t="n">
-        <v>236.785106778059</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T29" t="n">
-        <v>224.246294399988</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.9622183950918</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H30" t="n">
-        <v>127.8372169228968</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I30" t="n">
-        <v>114.855819447717</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J30" t="n">
-        <v>73.03491363274843</v>
+        <v>22.59370103762819</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>148.2309527983001</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S30" t="n">
-        <v>195.63287444794</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T30" t="n">
-        <v>215.8480604164874</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.883215127945</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H31" t="n">
-        <v>167.4464568944399</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I31" t="n">
-        <v>170.3394424699794</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J31" t="n">
-        <v>133.1381297789385</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K31" t="n">
-        <v>88.2262143767183</v>
+        <v>36.22343669362868</v>
       </c>
       <c r="L31" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>80.54391191246145</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.493864959141</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R31" t="n">
-        <v>211.6331360021768</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S31" t="n">
-        <v>238.6174795018098</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T31" t="n">
-        <v>224.541075671891</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,22 +24931,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>419.2448920946117</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H32" t="n">
-        <v>351.1867109187684</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I32" t="n">
-        <v>256.6898085504863</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J32" t="n">
-        <v>111.3013968910535</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K32" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24953,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>133.6328276992101</v>
+        <v>25.87695523201987</v>
       </c>
       <c r="R32" t="n">
-        <v>220.4301160555486</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S32" t="n">
-        <v>236.785106778059</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T32" t="n">
-        <v>224.246294399988</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.9622183950918</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H33" t="n">
-        <v>127.8372169228968</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I33" t="n">
-        <v>114.855819447717</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J33" t="n">
-        <v>73.03491363274843</v>
+        <v>22.59370103762818</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>148.2309527983001</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S33" t="n">
-        <v>195.63287444794</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T33" t="n">
-        <v>215.8480604164874</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.883215127945</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H34" t="n">
-        <v>167.4464568944399</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I34" t="n">
-        <v>170.3394424699794</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J34" t="n">
-        <v>133.1381297789385</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K34" t="n">
-        <v>88.2262143767183</v>
+        <v>36.22343669362868</v>
       </c>
       <c r="L34" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>80.54391191246145</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.493864959141</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R34" t="n">
-        <v>211.6331360021768</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S34" t="n">
-        <v>238.6174795018098</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T34" t="n">
-        <v>224.541075671891</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,22 +25168,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>419.2448920946117</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H35" t="n">
-        <v>351.1867109187684</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I35" t="n">
-        <v>256.6898085504863</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J35" t="n">
-        <v>111.3013968910535</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K35" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25190,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>133.6328276992101</v>
+        <v>25.87695523201988</v>
       </c>
       <c r="R35" t="n">
-        <v>220.4301160555486</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S35" t="n">
-        <v>236.785106778059</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T35" t="n">
-        <v>224.246294399988</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.9622183950918</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H36" t="n">
-        <v>127.8372169228968</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I36" t="n">
-        <v>114.855819447717</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J36" t="n">
-        <v>73.03491363274843</v>
+        <v>22.59370103762819</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>148.2309527983001</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S36" t="n">
-        <v>195.63287444794</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T36" t="n">
-        <v>215.8480604164874</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.883215127945</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H37" t="n">
-        <v>167.4464568944399</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I37" t="n">
-        <v>170.3394424699794</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J37" t="n">
-        <v>133.1381297789385</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K37" t="n">
-        <v>88.2262143767183</v>
+        <v>36.22343669362868</v>
       </c>
       <c r="L37" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>80.54391191246145</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q37" t="n">
-        <v>142.493864959141</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R37" t="n">
-        <v>211.6331360021768</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S37" t="n">
-        <v>238.6174795018098</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T37" t="n">
-        <v>224.541075671891</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,22 +25405,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>419.2448920946117</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H38" t="n">
-        <v>351.1867109187684</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I38" t="n">
-        <v>256.6898085504863</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J38" t="n">
-        <v>111.3013968910535</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K38" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25427,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>133.6328276992101</v>
+        <v>25.87695523201988</v>
       </c>
       <c r="R38" t="n">
-        <v>220.4301160555486</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S38" t="n">
-        <v>236.785106778059</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T38" t="n">
-        <v>224.246294399988</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.9622183950918</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H39" t="n">
-        <v>127.8372169228968</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I39" t="n">
-        <v>114.855819447717</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J39" t="n">
-        <v>73.03491363274843</v>
+        <v>22.59370103762819</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>148.2309527983001</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S39" t="n">
-        <v>195.63287444794</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T39" t="n">
-        <v>215.8480604164874</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.883215127945</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H40" t="n">
-        <v>167.4464568944399</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I40" t="n">
-        <v>170.3394424699794</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J40" t="n">
-        <v>133.1381297789385</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K40" t="n">
-        <v>88.2262143767183</v>
+        <v>36.22343669362868</v>
       </c>
       <c r="L40" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>80.54391191246145</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q40" t="n">
-        <v>142.493864959141</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R40" t="n">
-        <v>211.6331360021768</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S40" t="n">
-        <v>238.6174795018098</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T40" t="n">
-        <v>224.541075671891</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,22 +25642,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>419.2448920946117</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H41" t="n">
-        <v>351.1867109187684</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I41" t="n">
-        <v>256.6898085504863</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J41" t="n">
-        <v>111.3013968910535</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K41" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25664,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>133.6328276992101</v>
+        <v>25.87695523201988</v>
       </c>
       <c r="R41" t="n">
-        <v>220.4301160555486</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S41" t="n">
-        <v>236.785106778059</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T41" t="n">
-        <v>224.246294399988</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.9622183950918</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H42" t="n">
-        <v>127.8372169228968</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I42" t="n">
-        <v>114.855819447717</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J42" t="n">
-        <v>73.03491363274843</v>
+        <v>22.59370103762819</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>148.2309527983001</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S42" t="n">
-        <v>195.63287444794</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T42" t="n">
-        <v>215.8480604164874</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.883215127945</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H43" t="n">
-        <v>167.4464568944399</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I43" t="n">
-        <v>170.3394424699794</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J43" t="n">
-        <v>133.1381297789385</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K43" t="n">
-        <v>88.2262143767183</v>
+        <v>36.22343669362868</v>
       </c>
       <c r="L43" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>80.54391191246145</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q43" t="n">
-        <v>142.493864959141</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R43" t="n">
-        <v>211.6331360021768</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S43" t="n">
-        <v>238.6174795018098</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T43" t="n">
-        <v>224.541075671891</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,22 +25879,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>419.2448920946117</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H44" t="n">
-        <v>351.1867109187684</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I44" t="n">
-        <v>256.6898085504863</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J44" t="n">
-        <v>111.3013968910535</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K44" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25901,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>133.6328276992101</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>220.4301160555486</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S44" t="n">
-        <v>236.785106778059</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T44" t="n">
-        <v>224.246294399988</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1830790232068</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.9622183950918</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H45" t="n">
-        <v>127.8372169228968</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I45" t="n">
-        <v>114.855819447717</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J45" t="n">
-        <v>73.03491363274843</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>148.2309527983001</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S45" t="n">
-        <v>195.63287444794</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T45" t="n">
-        <v>215.8480604164874</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2423862021824</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.883215127945</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H46" t="n">
-        <v>167.4464568944399</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I46" t="n">
-        <v>170.3394424699794</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J46" t="n">
-        <v>133.1381297789385</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K46" t="n">
-        <v>88.2262143767183</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L46" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>80.54391191246145</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q46" t="n">
-        <v>142.493864959141</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R46" t="n">
-        <v>211.6331360021768</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S46" t="n">
-        <v>238.6174795018098</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T46" t="n">
-        <v>224.541075671891</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>359618.2117261604</v>
+        <v>422652.165946938</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>359618.2117261604</v>
+        <v>427777.2427007504</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>359618.2117261604</v>
+        <v>432005.0722001108</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>359618.2117261604</v>
+        <v>432005.0722001108</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>359618.2117261604</v>
+        <v>432005.0722001108</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>359618.2117261604</v>
+        <v>432005.0722001108</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>359618.2117261604</v>
+        <v>432005.0722001108</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>359618.2117261604</v>
+        <v>432005.0722001108</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>359618.2117261604</v>
+        <v>432005.0722001108</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>359618.2117261604</v>
+        <v>432005.0722001108</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>359618.2117261604</v>
+        <v>432005.0722001108</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>359618.2117261604</v>
+        <v>441708.5383713965</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>47596.52802258005</v>
       </c>
       <c r="E2" t="n">
-        <v>47596.52802258005</v>
+        <v>58633.42613857595</v>
       </c>
       <c r="F2" t="n">
-        <v>47596.52802258005</v>
+        <v>59746.43099246563</v>
       </c>
       <c r="G2" t="n">
-        <v>47596.52802258005</v>
+        <v>60689.73953946709</v>
       </c>
       <c r="H2" t="n">
-        <v>47596.52802258005</v>
+        <v>60689.73953946709</v>
       </c>
       <c r="I2" t="n">
-        <v>47596.52802258005</v>
+        <v>60689.73953946709</v>
       </c>
       <c r="J2" t="n">
-        <v>47596.52802258005</v>
+        <v>60689.73953946709</v>
       </c>
       <c r="K2" t="n">
-        <v>47596.52802258005</v>
+        <v>60689.73953946709</v>
       </c>
       <c r="L2" t="n">
-        <v>47596.52802258005</v>
+        <v>60689.73953946709</v>
       </c>
       <c r="M2" t="n">
-        <v>47596.52802258005</v>
+        <v>60689.73953946709</v>
       </c>
       <c r="N2" t="n">
-        <v>47596.52802258005</v>
+        <v>60689.73953946709</v>
       </c>
       <c r="O2" t="n">
-        <v>47596.52802258005</v>
+        <v>60689.73953946709</v>
       </c>
       <c r="P2" t="n">
-        <v>47596.52802258005</v>
+        <v>62946.59623865461</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>152952.0786303713</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>24279.75501853867</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>21082.91138273831</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>46562.38429137033</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37019.52179534004</v>
+        <v>37019.52179534005</v>
       </c>
       <c r="C4" t="n">
-        <v>37019.52179534004</v>
+        <v>37019.52179534005</v>
       </c>
       <c r="D4" t="n">
-        <v>37019.52179534004</v>
+        <v>37019.52179534005</v>
       </c>
       <c r="E4" t="n">
-        <v>37019.52179534004</v>
+        <v>25247.83322992309</v>
       </c>
       <c r="F4" t="n">
-        <v>37019.52179534004</v>
+        <v>22829.21041848332</v>
       </c>
       <c r="G4" t="n">
-        <v>37019.52179534004</v>
+        <v>20663.5042103892</v>
       </c>
       <c r="H4" t="n">
-        <v>37019.52179534004</v>
+        <v>20663.5042103892</v>
       </c>
       <c r="I4" t="n">
-        <v>37019.52179534004</v>
+        <v>20663.5042103892</v>
       </c>
       <c r="J4" t="n">
-        <v>37019.52179534004</v>
+        <v>20663.5042103892</v>
       </c>
       <c r="K4" t="n">
-        <v>37019.52179534004</v>
+        <v>20663.5042103892</v>
       </c>
       <c r="L4" t="n">
-        <v>37019.52179534004</v>
+        <v>20663.5042103892</v>
       </c>
       <c r="M4" t="n">
-        <v>37019.52179534004</v>
+        <v>20663.5042103892</v>
       </c>
       <c r="N4" t="n">
-        <v>37019.52179534004</v>
+        <v>20663.5042103892</v>
       </c>
       <c r="O4" t="n">
-        <v>37019.52179534004</v>
+        <v>20663.5042103892</v>
       </c>
       <c r="P4" t="n">
-        <v>37019.52179534004</v>
+        <v>15070.49719829297</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4150.289847239922</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4819.910958644438</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>6936.140855394496</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-23050.59377276</v>
       </c>
       <c r="E6" t="n">
-        <v>10577.00622724</v>
+        <v>-123716.7755689584</v>
       </c>
       <c r="F6" t="n">
-        <v>10577.00622724</v>
+        <v>7817.554596799201</v>
       </c>
       <c r="G6" t="n">
-        <v>10577.00622724</v>
+        <v>13532.26809634172</v>
       </c>
       <c r="H6" t="n">
-        <v>10577.00622724</v>
+        <v>34615.17947908003</v>
       </c>
       <c r="I6" t="n">
-        <v>10577.00622724</v>
+        <v>34615.17947908003</v>
       </c>
       <c r="J6" t="n">
-        <v>10577.00622724</v>
+        <v>34615.17947908003</v>
       </c>
       <c r="K6" t="n">
-        <v>10577.00622724</v>
+        <v>34615.17947908003</v>
       </c>
       <c r="L6" t="n">
-        <v>10577.00622724</v>
+        <v>34615.17947908003</v>
       </c>
       <c r="M6" t="n">
-        <v>10577.00622724</v>
+        <v>34615.17947908003</v>
       </c>
       <c r="N6" t="n">
-        <v>10577.00622724</v>
+        <v>34615.17947908003</v>
       </c>
       <c r="O6" t="n">
-        <v>10577.00622724</v>
+        <v>34615.17947908003</v>
       </c>
       <c r="P6" t="n">
-        <v>10577.00622724</v>
+        <v>-5622.426106403192</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>190.3802682220148</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>221.0968329653412</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.1715988713071</v>
       </c>
     </row>
     <row r="4">
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>190.3802682220148</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>30.71656474332644</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>27.1167381354779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>69.95802777048803</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.7653478119477974</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.838118279110383</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.50607152011749</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>64.95793885430443</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>97.35511173405472</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>120.7776248339521</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>134.3883789846788</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>136.5629234553755</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>128.9524961503196</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>110.0579720428583</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>82.64895352747776</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>48.07627949226588</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>17.44036326476045</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3.350310046801485</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.06122782495582379</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.4094971807039562</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3.954880666272421</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>14.09891609002657</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.68850337519265</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>66.12481448235772</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>88.91297338047964</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>103.757246180998</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>106.5033917480873</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>97.42979632301542</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>78.19600111179319</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>52.27195590880678</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.42474600897021</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>7.606230527549359</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.650561004679542</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.02694060399368135</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.3433086804003544</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.052326267559517</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>10.32422831603975</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>24.27192370430506</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>39.88622668651389</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>51.0406378115218</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>52.53559106526519</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>48.5251214805883</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>41.52162440042103</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>28.74742050152423</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>15.43640666600139</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.982934002977084</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.466864361710605</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.01872592802183753</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.8888314893079037</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.102745489874572</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.26667599154299</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>75.43846161564677</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>113.0626985580503</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>140.2642752489571</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>156.0710322469366</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>158.5964247159326</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>149.7581065941272</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>127.8150792018383</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>95.98380149099896</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>55.83306104023765</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>20.25424756260388</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>3.89085984444535</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.07110651914463229</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.4755667727933755</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4.592973831978127</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>16.37368055450876</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.9306309330794</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>76.79360471023554</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>103.2584784523511</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>120.4977739661109</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>123.6869914906771</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>113.1494329987817</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>90.81239541174553</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>60.7056813832386</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.52685629676765</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>8.83344422271905</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.916867825425929</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.03128728768377471</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.3986992069866808</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.544798403936129</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>11.9899725155631</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>28.18803393395833</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>46.32159877536164</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>62.49791296428488</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>61.01185228369821</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>56.35432063844469</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>48.22085681591636</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>33.38562177776652</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>17.9269661614193</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>6.948239816304245</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.703532975306727</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.0217472294720008</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.9978435019128399</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>168.1254043329171</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>62.68078687703248</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>4.368059929623459</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5.156285694000036</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>50.44121259512024</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.03512456194822913</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.979555287485266</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>31.64519577788639</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>66.545651504636</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>70.16305912281021</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>68.49473839901788</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>63.26597710615633</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>54.13497294959501</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>37.48024923622368</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>7.800416652463443</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.9978435019128399</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>168.1254043329171</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>62.68078687703248</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>4.368059929623459</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>5.156285694000036</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>50.44121259512024</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.03512456194822913</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.979555287485266</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>31.64519577788639</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>66.545651504636</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>70.16305912281021</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>68.49473839901788</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>63.26597710615633</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>54.13497294959501</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>37.48024923622368</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>7.800416652463443</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.9978435019128399</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>168.1254043329171</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>62.68078687703248</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>4.368059929623459</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>5.156285694000036</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>50.44121259512024</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.03512456194822913</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.979555287485266</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>31.64519577788639</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>66.545651504636</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>70.16305912281021</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>68.49473839901788</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>63.26597710615633</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>54.13497294959501</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>37.48024923622368</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>7.800416652463443</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.9978435019128399</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>168.1254043329171</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>62.68078687703248</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>4.368059929623459</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>5.156285694000036</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>50.44121259512024</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.03512456194822913</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.979555287485266</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>31.64519577788639</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>66.545651504636</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>70.16305912281021</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>68.49473839901788</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>63.26597710615633</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>54.13497294959501</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>37.48024923622368</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>7.800416652463443</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.9978435019128399</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>168.1254043329171</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>62.68078687703248</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>4.368059929623459</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5.156285694000036</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>50.44121259512024</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.03512456194822913</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3.979555287485266</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>31.64519577788639</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>66.545651504636</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>70.16305912281021</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>68.49473839901788</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>63.26597710615633</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>54.13497294959501</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>37.48024923622368</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>7.800416652463443</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.99784350191284</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>10.21916476396488</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>168.1254043329171</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>62.68078687703249</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>4.368059929623459</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>5.156285694000037</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>50.44121259512025</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.03512456194822914</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.979555287485266</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>31.6451957778864</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>66.54565150463601</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>70.16305912281021</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>68.49473839901789</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>54.13497294959502</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>37.48024923622368</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>7.800416652463444</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.9978435019128399</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>168.1254043329171</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>62.68078687703248</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>4.368059929623459</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>5.156285694000036</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>50.44121259512024</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.03512456194822913</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.979555287485266</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>31.64519577788639</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>66.545651504636</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>70.16305912281021</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>68.49473839901788</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>63.26597710615633</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>54.13497294959501</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>37.48024923622368</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>7.800416652463443</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.9978435019128399</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>168.1254043329171</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>62.68078687703248</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>4.368059929623459</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>5.156285694000036</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>50.44121259512024</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.03512456194822913</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.979555287485266</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>31.64519577788639</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>66.545651504636</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>70.16305912281021</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>68.49473839901788</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>63.26597710615633</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>54.13497294959501</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>37.48024923622368</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>7.800416652463443</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.9978435019128399</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>168.1254043329171</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>62.68078687703248</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>4.368059929623459</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>5.156285694000036</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>50.44121259512024</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.03512456194822913</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3.979555287485266</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>31.64519577788639</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>66.545651504636</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>70.16305912281021</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>68.49473839901788</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>63.26597710615633</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>54.13497294959501</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>37.48024923622368</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>7.800416652463443</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>183.9335623404725</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>80.34712240241105</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.599180599232749</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.6843690994590379</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>42.4909165436059</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5737520635384226</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.101177437641615</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>85.3012840646124</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>89.9382439235729</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>81.09724621723089</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2728.162977181742</v>
+        <v>-129444.5632619672</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3587550.266388206</v>
+        <v>4134348.797052462</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23469182.3233879</v>
+        <v>23290677.69920168</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4780087.267430033</v>
+        <v>4834667.296689808</v>
       </c>
     </row>
     <row r="11">
@@ -8692,22 +8692,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>171.1545065408216</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L11" t="n">
-        <v>166.8574014294323</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M11" t="n">
-        <v>146.634025552594</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N11" t="n">
-        <v>143.3210141324655</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O11" t="n">
-        <v>151.7673217841382</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P11" t="n">
-        <v>172.0462827785706</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q11" t="n">
         <v>137.5801139476182</v>
@@ -8771,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>102.0417410663602</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L12" t="n">
-        <v>80.12336995096688</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M12" t="n">
-        <v>69.64627520386433</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N12" t="n">
-        <v>53.73349699357935</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>76.53762189920677</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P12" t="n">
-        <v>85.2527759336897</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q12" t="n">
-        <v>118.5058084761395</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8853,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M13" t="n">
-        <v>115.6742602693208</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N13" t="n">
-        <v>103.2407731823193</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8929,22 +8929,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>155.446919716826</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L14" t="n">
-        <v>147.3707510144273</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M14" t="n">
-        <v>124.9513722903362</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N14" t="n">
-        <v>121.2875128719083</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O14" t="n">
-        <v>130.9617113403307</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P14" t="n">
-        <v>154.2891756195906</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q14" t="n">
         <v>137.5801139476182</v>
@@ -9008,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>91.37295083848241</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L15" t="n">
-        <v>65.7778648790954</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M15" t="n">
-        <v>52.90574741875142</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N15" t="n">
-        <v>36.5498972509896</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>60.81798522344044</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P15" t="n">
-        <v>72.63638163373737</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.0720830017077</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9090,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M16" t="n">
-        <v>106.9915434517933</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N16" t="n">
-        <v>94.76451196388629</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9166,22 +9166,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L17" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M17" t="n">
-        <v>105.8098167320197</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N17" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O17" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P17" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q17" t="n">
         <v>137.5801139476182</v>
@@ -9245,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L18" t="n">
-        <v>53.11358071497433</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M18" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N18" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>46.94061075518319</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P18" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q18" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9327,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>98.01365355847472</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M19" t="n">
-        <v>99.32639729326795</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N19" t="n">
-        <v>87.28162584856662</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O19" t="n">
-        <v>105.6509998050919</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9403,22 +9403,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L20" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M20" t="n">
-        <v>105.8098167320197</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N20" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O20" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P20" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q20" t="n">
         <v>137.5801139476182</v>
@@ -9482,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L21" t="n">
-        <v>53.11358071497433</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M21" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N21" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>46.94061075518319</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P21" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9564,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>98.01365355847472</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M22" t="n">
-        <v>99.32639729326795</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N22" t="n">
-        <v>87.28162584856662</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O22" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9640,22 +9640,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L23" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M23" t="n">
-        <v>105.8098167320197</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N23" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O23" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P23" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q23" t="n">
         <v>137.5801139476182</v>
@@ -9719,25 +9719,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L24" t="n">
-        <v>53.11358071497433</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M24" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N24" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>46.94061075518319</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P24" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9801,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>98.01365355847472</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M25" t="n">
-        <v>99.32639729326795</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N25" t="n">
-        <v>87.28162584856662</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O25" t="n">
-        <v>105.6509998050919</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9877,22 +9877,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L26" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M26" t="n">
-        <v>105.8098167320197</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N26" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O26" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P26" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q26" t="n">
         <v>137.5801139476182</v>
@@ -9956,25 +9956,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L27" t="n">
-        <v>53.11358071497433</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M27" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N27" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>46.94061075518319</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P27" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10038,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>98.01365355847472</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M28" t="n">
-        <v>99.32639729326795</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N28" t="n">
-        <v>87.28162584856662</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O28" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10114,22 +10114,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L29" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M29" t="n">
-        <v>105.8098167320197</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N29" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O29" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P29" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q29" t="n">
         <v>137.5801139476182</v>
@@ -10193,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L30" t="n">
-        <v>53.11358071497433</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M30" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N30" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>46.94061075518319</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P30" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10275,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>98.01365355847472</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M31" t="n">
-        <v>99.32639729326795</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N31" t="n">
-        <v>87.28162584856662</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O31" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10351,22 +10351,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L32" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M32" t="n">
-        <v>105.8098167320197</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N32" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O32" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P32" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q32" t="n">
         <v>137.5801139476182</v>
@@ -10430,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L33" t="n">
-        <v>53.11358071497432</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M33" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N33" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>46.94061075518317</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P33" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10512,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>98.0136535584747</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M34" t="n">
-        <v>99.32639729326795</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N34" t="n">
-        <v>87.28162584856661</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O34" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10588,22 +10588,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L35" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M35" t="n">
-        <v>105.8098167320197</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N35" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O35" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P35" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q35" t="n">
         <v>137.5801139476182</v>
@@ -10667,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L36" t="n">
-        <v>53.11358071497433</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M36" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N36" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>46.94061075518319</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P36" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10749,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>98.01365355847472</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M37" t="n">
-        <v>99.32639729326795</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N37" t="n">
-        <v>87.28162584856662</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O37" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10825,22 +10825,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L38" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M38" t="n">
-        <v>105.8098167320197</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N38" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O38" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P38" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
@@ -10904,25 +10904,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L39" t="n">
-        <v>53.11358071497433</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M39" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N39" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>46.94061075518319</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P39" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10986,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>98.01365355847472</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M40" t="n">
-        <v>99.32639729326795</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N40" t="n">
-        <v>87.28162584856662</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O40" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11062,22 +11062,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L41" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M41" t="n">
-        <v>105.8098167320197</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N41" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O41" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P41" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q41" t="n">
         <v>137.5801139476182</v>
@@ -11141,25 +11141,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L42" t="n">
-        <v>53.11358071497433</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M42" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N42" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>46.94061075518319</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P42" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11223,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>98.01365355847472</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M43" t="n">
-        <v>99.32639729326795</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N43" t="n">
-        <v>87.28162584856662</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O43" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11299,25 +11299,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>105.8056161847214</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L44" t="n">
-        <v>85.78632439852493</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M44" t="n">
-        <v>56.42683163149823</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N44" t="n">
-        <v>51.65417350500871</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O44" t="n">
-        <v>65.20892354519972</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P44" t="n">
-        <v>98.17069248095632</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q44" t="n">
-        <v>133.0864964302902</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11378,25 +11378,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>57.65595408036968</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L45" t="n">
-        <v>20.44120180197424</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>11.13860007154486</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P45" t="n">
-        <v>32.7642952373794</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q45" t="n">
-        <v>83.41864916277152</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11460,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>79.25802099849831</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M46" t="n">
-        <v>79.55121249250526</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N46" t="n">
-        <v>67.97665074265473</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O46" t="n">
-        <v>87.8197306940173</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -23272,16 +23272,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>418.4795442826639</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H11" t="n">
-        <v>343.348592639658</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I11" t="n">
-        <v>227.1837370303688</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J11" t="n">
-        <v>46.34345803674904</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.98387417173238</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R11" t="n">
-        <v>172.3538365632827</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S11" t="n">
-        <v>219.3447435132985</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T11" t="n">
-        <v>220.8959843531865</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U11" t="n">
-        <v>250.121851198251</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23351,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.5527212143879</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H12" t="n">
-        <v>123.8823362566243</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I12" t="n">
-        <v>100.7569033576904</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J12" t="n">
-        <v>34.34641025755577</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>122.8062067893299</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S12" t="n">
-        <v>188.0266439203906</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T12" t="n">
-        <v>214.1974994118079</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2154455981887</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23430,22 +23430,22 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.5399064475446</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H13" t="n">
-        <v>164.3941306268804</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I13" t="n">
-        <v>160.0152141539397</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J13" t="n">
-        <v>108.8662060746335</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K13" t="n">
-        <v>48.33998769020441</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L13" t="n">
-        <v>8.235060652661652</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -23454,25 +23454,25 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>14.74085562556805</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39.02228751204042</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.7464444576167</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R13" t="n">
-        <v>196.1967293361754</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S13" t="n">
-        <v>232.6345454988327</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T13" t="n">
-        <v>223.0742113101803</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6477823242233</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23509,16 +23509,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>418.3560606053038</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H14" t="n">
-        <v>342.0839654288939</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I14" t="n">
-        <v>222.4231325589433</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J14" t="n">
-        <v>35.8629352754067</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.64902620821118</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R14" t="n">
-        <v>164.5970550153109</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S14" t="n">
-        <v>216.5308592154551</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T14" t="n">
-        <v>220.3554345555427</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1119725040622</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23588,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.4866516222985</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H15" t="n">
-        <v>123.2442430909186</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I15" t="n">
-        <v>98.4821388932082</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J15" t="n">
-        <v>28.10428269966903</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.7040965015325</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S15" t="n">
-        <v>186.7994302252209</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T15" t="n">
-        <v>213.9311925910615</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2110989144986</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23667,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.4845159209583</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H16" t="n">
-        <v>163.9016584905037</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I16" t="n">
-        <v>158.3494699544163</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J16" t="n">
-        <v>104.9500958449802</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K16" t="n">
-        <v>41.90461560135667</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23691,25 +23691,25 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>6.911656467711651</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>32.32305509654509</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q16" t="n">
-        <v>109.1082431813745</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R16" t="n">
-        <v>193.7061698407575</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S16" t="n">
-        <v>231.6692396855056</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T16" t="n">
-        <v>222.8375426965842</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6447610227732</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23746,16 +23746,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H17" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I17" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J17" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>25.87695523201988</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R17" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S17" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T17" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23825,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H18" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I18" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J18" t="n">
-        <v>22.59370103762819</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S18" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T18" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23904,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H19" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I19" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J19" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K19" t="n">
-        <v>36.22343669362868</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q19" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R19" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S19" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T19" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23983,16 +23983,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H20" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I20" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J20" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>25.87695523201988</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R20" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S20" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T20" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24062,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H21" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I21" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J21" t="n">
-        <v>22.59370103762819</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S21" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T21" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24141,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H22" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I22" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J22" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K22" t="n">
-        <v>36.22343669362868</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q22" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R22" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S22" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T22" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24220,16 +24220,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H23" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I23" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J23" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>25.87695523201988</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R23" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S23" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T23" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24299,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H24" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I24" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J24" t="n">
-        <v>22.59370103762819</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S24" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T24" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24378,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H25" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I25" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J25" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K25" t="n">
-        <v>36.22343669362868</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24405,22 +24405,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q25" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R25" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S25" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T25" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24457,16 +24457,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H26" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I26" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J26" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>25.87695523201988</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R26" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S26" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T26" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24536,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H27" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I27" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J27" t="n">
-        <v>22.59370103762819</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S27" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T27" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24615,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H28" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I28" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J28" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K28" t="n">
-        <v>36.22343669362868</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,22 +24642,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q28" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R28" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S28" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T28" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,16 +24694,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H29" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I29" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J29" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>25.87695523201988</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R29" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S29" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T29" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24773,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H30" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I30" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J30" t="n">
-        <v>22.59370103762819</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S30" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T30" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24852,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H31" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I31" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J31" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K31" t="n">
-        <v>36.22343669362868</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24879,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q31" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R31" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S31" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T31" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24931,16 +24931,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H32" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I32" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J32" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>25.87695523201987</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R32" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S32" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T32" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25010,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H33" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I33" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J33" t="n">
-        <v>22.59370103762818</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S33" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T33" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25089,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H34" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I34" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J34" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K34" t="n">
-        <v>36.22343669362868</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25116,22 +25116,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R34" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S34" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T34" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25168,16 +25168,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H35" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I35" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J35" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>25.87695523201988</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R35" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S35" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T35" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25247,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H36" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I36" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J36" t="n">
-        <v>22.59370103762819</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S36" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T36" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25326,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H37" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I37" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J37" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K37" t="n">
-        <v>36.22343669362868</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25353,22 +25353,22 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q37" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R37" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S37" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25405,16 +25405,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H38" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I38" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J38" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>25.87695523201988</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R38" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S38" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T38" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25484,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H39" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I39" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J39" t="n">
-        <v>22.59370103762819</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S39" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T39" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25563,19 +25563,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H40" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I40" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J40" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K40" t="n">
-        <v>36.22343669362868</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25590,22 +25590,22 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R40" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S40" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T40" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25642,16 +25642,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H41" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I41" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J41" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>25.87695523201988</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R41" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S41" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T41" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25721,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H42" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I42" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J42" t="n">
-        <v>22.59370103762819</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S42" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T42" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25800,19 +25800,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H43" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I43" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J43" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K43" t="n">
-        <v>36.22343669362868</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,22 +25827,22 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R43" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S43" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T43" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25879,16 +25879,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.9658102901039</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H44" t="n">
-        <v>338.0873143883533</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I44" t="n">
-        <v>207.3780072822006</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J44" t="n">
-        <v>2.740927585712328</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R44" t="n">
-        <v>140.0829936531375</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S44" t="n">
-        <v>207.6380301578382</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6471138007553</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0807524788462</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.2778492956328</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H45" t="n">
-        <v>121.2276521991739</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I45" t="n">
-        <v>91.29311141809657</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J45" t="n">
-        <v>8.377041828155711</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>105.7400362546942</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S45" t="n">
-        <v>182.9210185873741</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T45" t="n">
-        <v>213.0895726866503</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1973619193232</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.3094630644065</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H46" t="n">
-        <v>162.3452794567983</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I46" t="n">
-        <v>153.0851531410239</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J46" t="n">
-        <v>92.57385888677204</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K46" t="n">
-        <v>21.56665644925431</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26064,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>11.15120779141444</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q46" t="n">
-        <v>94.44995352957361</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R46" t="n">
-        <v>185.8351568543492</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S46" t="n">
-        <v>228.6185458126902</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T46" t="n">
-        <v>222.0895895822268</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>422652.165946938</v>
+        <v>437566.2933689347</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>427777.2427007504</v>
+        <v>437566.2933689347</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432005.0722001108</v>
+        <v>437566.2933689347</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>432005.0722001108</v>
+        <v>437566.2933689347</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432005.0722001108</v>
+        <v>437566.2933689347</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432005.0722001108</v>
+        <v>437566.2933689347</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432005.0722001108</v>
+        <v>437566.2933689347</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432005.0722001108</v>
+        <v>437566.2933689347</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>432005.0722001108</v>
+        <v>437566.2933689347</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>432005.0722001108</v>
+        <v>437566.2933689347</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>432005.0722001108</v>
+        <v>437566.2933689347</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>441708.5383713965</v>
+        <v>437566.2933689347</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>47596.52802258005</v>
       </c>
       <c r="E2" t="n">
-        <v>58633.42613857595</v>
+        <v>61966.62711680547</v>
       </c>
       <c r="F2" t="n">
-        <v>59746.43099246563</v>
+        <v>61966.62711680547</v>
       </c>
       <c r="G2" t="n">
-        <v>60689.73953946709</v>
+        <v>61966.62711680547</v>
       </c>
       <c r="H2" t="n">
-        <v>60689.73953946709</v>
+        <v>61966.62711680547</v>
       </c>
       <c r="I2" t="n">
-        <v>60689.73953946709</v>
+        <v>61966.62711680547</v>
       </c>
       <c r="J2" t="n">
-        <v>60689.73953946709</v>
+        <v>61966.62711680547</v>
       </c>
       <c r="K2" t="n">
-        <v>60689.73953946709</v>
+        <v>61966.62711680547</v>
       </c>
       <c r="L2" t="n">
-        <v>60689.73953946709</v>
+        <v>61966.62711680547</v>
       </c>
       <c r="M2" t="n">
-        <v>60689.73953946709</v>
+        <v>61966.62711680546</v>
       </c>
       <c r="N2" t="n">
-        <v>60689.73953946709</v>
+        <v>61966.62711680547</v>
       </c>
       <c r="O2" t="n">
-        <v>60689.73953946709</v>
+        <v>61966.62711680547</v>
       </c>
       <c r="P2" t="n">
-        <v>62946.59623865461</v>
+        <v>61966.62711680547</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>152952.0786303713</v>
+        <v>230120.0441040565</v>
       </c>
       <c r="F3" t="n">
-        <v>24279.75501853867</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21082.91138273831</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>46562.38429137033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37019.52179534005</v>
+        <v>37019.52179534004</v>
       </c>
       <c r="C4" t="n">
-        <v>37019.52179534005</v>
+        <v>37019.52179534004</v>
       </c>
       <c r="D4" t="n">
-        <v>37019.52179534005</v>
+        <v>37019.52179534004</v>
       </c>
       <c r="E4" t="n">
-        <v>25247.83322992309</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="F4" t="n">
-        <v>22829.21041848332</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="G4" t="n">
-        <v>20663.5042103892</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="H4" t="n">
-        <v>20663.5042103892</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="I4" t="n">
-        <v>20663.5042103892</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="J4" t="n">
-        <v>20663.5042103892</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="K4" t="n">
-        <v>20663.5042103892</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="L4" t="n">
-        <v>20663.5042103892</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="M4" t="n">
-        <v>20663.5042103892</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="N4" t="n">
-        <v>20663.5042103892</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="O4" t="n">
-        <v>20663.5042103892</v>
+        <v>17570.26513280862</v>
       </c>
       <c r="P4" t="n">
-        <v>15070.49719829297</v>
+        <v>17570.26513280862</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>4150.289847239922</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="F5" t="n">
-        <v>4819.910958644438</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="G5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="H5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="I5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="J5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="K5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="L5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="M5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="N5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="O5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="P5" t="n">
-        <v>6936.140855394496</v>
+        <v>6244.209893998943</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23050.59377276</v>
+        <v>-39855.05438060338</v>
       </c>
       <c r="C6" t="n">
-        <v>-23050.59377276</v>
+        <v>-39855.05438060338</v>
       </c>
       <c r="D6" t="n">
-        <v>-23050.59377276</v>
+        <v>-39855.05438060338</v>
       </c>
       <c r="E6" t="n">
-        <v>-123716.7755689584</v>
+        <v>-207175.6749447659</v>
       </c>
       <c r="F6" t="n">
-        <v>7817.554596799201</v>
+        <v>22944.36915929067</v>
       </c>
       <c r="G6" t="n">
-        <v>13532.26809634172</v>
+        <v>22944.36915929067</v>
       </c>
       <c r="H6" t="n">
-        <v>34615.17947908003</v>
+        <v>22944.36915929067</v>
       </c>
       <c r="I6" t="n">
-        <v>34615.17947908003</v>
+        <v>22944.36915929067</v>
       </c>
       <c r="J6" t="n">
-        <v>34615.17947908003</v>
+        <v>22944.36915929067</v>
       </c>
       <c r="K6" t="n">
-        <v>34615.17947908003</v>
+        <v>22944.36915929067</v>
       </c>
       <c r="L6" t="n">
-        <v>34615.17947908003</v>
+        <v>22944.36915929067</v>
       </c>
       <c r="M6" t="n">
-        <v>34615.17947908003</v>
+        <v>22944.36915929067</v>
       </c>
       <c r="N6" t="n">
-        <v>34615.17947908003</v>
+        <v>22944.36915929067</v>
       </c>
       <c r="O6" t="n">
-        <v>34615.17947908003</v>
+        <v>22944.36915929067</v>
       </c>
       <c r="P6" t="n">
-        <v>-5622.426106403192</v>
+        <v>22944.36915929067</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>190.3802682220148</v>
+        <v>286.431646513713</v>
       </c>
       <c r="F3" t="n">
-        <v>221.0968329653412</v>
+        <v>286.431646513713</v>
       </c>
       <c r="G3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="H3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="I3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="J3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="K3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="M3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="N3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="O3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="P3" t="n">
-        <v>318.1715988713071</v>
+        <v>286.431646513713</v>
       </c>
     </row>
     <row r="4">
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>190.3802682220148</v>
+        <v>286.431646513713</v>
       </c>
       <c r="F3" t="n">
-        <v>30.71656474332644</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>27.1167381354779</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>69.95802777048803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7653478119477974</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H11" t="n">
-        <v>7.838118279110383</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I11" t="n">
-        <v>29.50607152011749</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J11" t="n">
-        <v>64.95793885430443</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K11" t="n">
-        <v>97.35511173405472</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L11" t="n">
-        <v>120.7776248339521</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M11" t="n">
-        <v>134.3883789846788</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N11" t="n">
-        <v>136.5629234553755</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O11" t="n">
-        <v>128.9524961503196</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P11" t="n">
-        <v>110.0579720428583</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.64895352747776</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R11" t="n">
-        <v>48.07627949226588</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S11" t="n">
-        <v>17.44036326476045</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T11" t="n">
-        <v>3.350310046801485</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06122782495582379</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4094971807039562</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H12" t="n">
-        <v>3.954880666272421</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I12" t="n">
-        <v>14.09891609002657</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J12" t="n">
-        <v>38.68850337519265</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K12" t="n">
-        <v>66.12481448235772</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L12" t="n">
-        <v>88.91297338047964</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M12" t="n">
-        <v>103.757246180998</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N12" t="n">
-        <v>106.5033917480873</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>97.42979632301542</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P12" t="n">
-        <v>78.19600111179319</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.27195590880678</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R12" t="n">
-        <v>25.42474600897021</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S12" t="n">
-        <v>7.606230527549359</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T12" t="n">
-        <v>1.650561004679542</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02694060399368135</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3433086804003544</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H13" t="n">
-        <v>3.052326267559517</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I13" t="n">
-        <v>10.32422831603975</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J13" t="n">
-        <v>24.27192370430506</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K13" t="n">
-        <v>39.88622668651389</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L13" t="n">
-        <v>51.0406378115218</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M13" t="n">
-        <v>53.81519614675737</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N13" t="n">
-        <v>52.53559106526519</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O13" t="n">
-        <v>48.5251214805883</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P13" t="n">
-        <v>41.52162440042103</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.74742050152423</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R13" t="n">
-        <v>15.43640666600139</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S13" t="n">
-        <v>5.982934002977084</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T13" t="n">
-        <v>1.466864361710605</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01872592802183753</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8888314893079037</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H14" t="n">
-        <v>9.102745489874572</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I14" t="n">
-        <v>34.26667599154299</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J14" t="n">
-        <v>75.43846161564677</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K14" t="n">
-        <v>113.0626985580503</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L14" t="n">
-        <v>140.2642752489571</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M14" t="n">
-        <v>156.0710322469366</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N14" t="n">
-        <v>158.5964247159326</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O14" t="n">
-        <v>149.7581065941272</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P14" t="n">
-        <v>127.8150792018383</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.98380149099896</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R14" t="n">
-        <v>55.83306104023765</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S14" t="n">
-        <v>20.25424756260388</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T14" t="n">
-        <v>3.89085984444535</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07110651914463229</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4755667727933755</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H15" t="n">
-        <v>4.592973831978127</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I15" t="n">
-        <v>16.37368055450876</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J15" t="n">
-        <v>44.9306309330794</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K15" t="n">
-        <v>76.79360471023554</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L15" t="n">
-        <v>103.2584784523511</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M15" t="n">
-        <v>120.4977739661109</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N15" t="n">
-        <v>123.6869914906771</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>113.1494329987817</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P15" t="n">
-        <v>90.81239541174553</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.7056813832386</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R15" t="n">
-        <v>29.52685629676765</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S15" t="n">
-        <v>8.83344422271905</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T15" t="n">
-        <v>1.916867825425929</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03128728768377471</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3986992069866808</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H16" t="n">
-        <v>3.544798403936129</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I16" t="n">
-        <v>11.9899725155631</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J16" t="n">
-        <v>28.18803393395833</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K16" t="n">
-        <v>46.32159877536164</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L16" t="n">
-        <v>59.27569846418345</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M16" t="n">
-        <v>62.49791296428488</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N16" t="n">
-        <v>61.01185228369821</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O16" t="n">
-        <v>56.35432063844469</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P16" t="n">
-        <v>48.22085681591636</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.38562177776652</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R16" t="n">
-        <v>17.9269661614193</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S16" t="n">
-        <v>6.948239816304245</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T16" t="n">
-        <v>1.703532975306727</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0217472294720008</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9978435019128399</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H17" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I17" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J17" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K17" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L17" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M17" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N17" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O17" t="n">
-        <v>168.1254043329171</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P17" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q17" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R17" t="n">
-        <v>62.68078687703248</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S17" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T17" t="n">
-        <v>4.368059929623459</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H18" t="n">
-        <v>5.156285694000036</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I18" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J18" t="n">
-        <v>50.44121259512024</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K18" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L18" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M18" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N18" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P18" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R18" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S18" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T18" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03512456194822913</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H19" t="n">
-        <v>3.979555287485266</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I19" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J19" t="n">
-        <v>31.64519577788639</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K19" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L19" t="n">
-        <v>66.545651504636</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M19" t="n">
-        <v>70.16305912281021</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N19" t="n">
-        <v>68.49473839901788</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O19" t="n">
-        <v>63.26597710615633</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P19" t="n">
-        <v>54.13497294959501</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.48024923622368</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R19" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S19" t="n">
-        <v>7.800416652463443</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9978435019128399</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H20" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I20" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J20" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K20" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L20" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M20" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N20" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O20" t="n">
-        <v>168.1254043329171</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P20" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q20" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R20" t="n">
-        <v>62.68078687703248</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S20" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T20" t="n">
-        <v>4.368059929623459</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H21" t="n">
-        <v>5.156285694000036</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I21" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J21" t="n">
-        <v>50.44121259512024</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K21" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L21" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M21" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N21" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P21" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R21" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S21" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T21" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03512456194822913</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H22" t="n">
-        <v>3.979555287485266</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I22" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J22" t="n">
-        <v>31.64519577788639</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K22" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L22" t="n">
-        <v>66.545651504636</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M22" t="n">
-        <v>70.16305912281021</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N22" t="n">
-        <v>68.49473839901788</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O22" t="n">
-        <v>63.26597710615633</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P22" t="n">
-        <v>54.13497294959501</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.48024923622368</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R22" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S22" t="n">
-        <v>7.800416652463443</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T22" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9978435019128399</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H23" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I23" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J23" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K23" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L23" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M23" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N23" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O23" t="n">
-        <v>168.1254043329171</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P23" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q23" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R23" t="n">
-        <v>62.68078687703248</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S23" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T23" t="n">
-        <v>4.368059929623459</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H24" t="n">
-        <v>5.156285694000036</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I24" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J24" t="n">
-        <v>50.44121259512024</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K24" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L24" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M24" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N24" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P24" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q24" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R24" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S24" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T24" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03512456194822913</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H25" t="n">
-        <v>3.979555287485266</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I25" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J25" t="n">
-        <v>31.64519577788639</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K25" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L25" t="n">
-        <v>66.545651504636</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M25" t="n">
-        <v>70.16305912281021</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N25" t="n">
-        <v>68.49473839901788</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O25" t="n">
-        <v>63.26597710615633</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P25" t="n">
-        <v>54.13497294959501</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.48024923622368</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R25" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S25" t="n">
-        <v>7.800416652463443</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T25" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9978435019128399</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H26" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I26" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J26" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K26" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L26" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M26" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N26" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O26" t="n">
-        <v>168.1254043329171</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P26" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q26" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R26" t="n">
-        <v>62.68078687703248</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S26" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T26" t="n">
-        <v>4.368059929623459</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H27" t="n">
-        <v>5.156285694000036</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I27" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J27" t="n">
-        <v>50.44121259512024</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K27" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L27" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M27" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N27" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P27" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q27" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R27" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S27" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T27" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03512456194822913</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H28" t="n">
-        <v>3.979555287485266</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I28" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J28" t="n">
-        <v>31.64519577788639</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K28" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L28" t="n">
-        <v>66.545651504636</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M28" t="n">
-        <v>70.16305912281021</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N28" t="n">
-        <v>68.49473839901788</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O28" t="n">
-        <v>63.26597710615633</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P28" t="n">
-        <v>54.13497294959501</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.48024923622368</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R28" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S28" t="n">
-        <v>7.800416652463443</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T28" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9978435019128399</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H29" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I29" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J29" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K29" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L29" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M29" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N29" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O29" t="n">
-        <v>168.1254043329171</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P29" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q29" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R29" t="n">
-        <v>62.68078687703248</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S29" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T29" t="n">
-        <v>4.368059929623459</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H30" t="n">
-        <v>5.156285694000036</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I30" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J30" t="n">
-        <v>50.44121259512024</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K30" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L30" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M30" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N30" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P30" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q30" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R30" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S30" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T30" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03512456194822913</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H31" t="n">
-        <v>3.979555287485266</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I31" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J31" t="n">
-        <v>31.64519577788639</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K31" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L31" t="n">
-        <v>66.545651504636</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M31" t="n">
-        <v>70.16305912281021</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N31" t="n">
-        <v>68.49473839901788</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O31" t="n">
-        <v>63.26597710615633</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P31" t="n">
-        <v>54.13497294959501</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.48024923622368</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R31" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S31" t="n">
-        <v>7.800416652463443</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T31" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.99784350191284</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H32" t="n">
-        <v>10.21916476396488</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I32" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J32" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K32" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L32" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M32" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N32" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O32" t="n">
-        <v>168.1254043329171</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P32" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q32" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R32" t="n">
-        <v>62.68078687703249</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S32" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T32" t="n">
-        <v>4.368059929623459</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H33" t="n">
-        <v>5.156285694000037</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I33" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J33" t="n">
-        <v>50.44121259512025</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K33" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L33" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M33" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N33" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P33" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q33" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R33" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S33" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T33" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03512456194822914</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H34" t="n">
-        <v>3.979555287485266</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I34" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J34" t="n">
-        <v>31.6451957778864</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K34" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L34" t="n">
-        <v>66.54565150463601</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M34" t="n">
-        <v>70.16305912281021</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N34" t="n">
-        <v>68.49473839901789</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O34" t="n">
-        <v>63.26597710615634</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P34" t="n">
-        <v>54.13497294959502</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.48024923622368</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R34" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S34" t="n">
-        <v>7.800416652463444</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T34" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9978435019128399</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H35" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I35" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J35" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K35" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L35" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M35" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N35" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O35" t="n">
-        <v>168.1254043329171</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P35" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q35" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R35" t="n">
-        <v>62.68078687703248</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S35" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T35" t="n">
-        <v>4.368059929623459</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H36" t="n">
-        <v>5.156285694000036</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I36" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J36" t="n">
-        <v>50.44121259512024</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K36" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L36" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M36" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N36" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P36" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q36" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R36" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S36" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T36" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03512456194822913</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H37" t="n">
-        <v>3.979555287485266</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I37" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J37" t="n">
-        <v>31.64519577788639</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K37" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L37" t="n">
-        <v>66.545651504636</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M37" t="n">
-        <v>70.16305912281021</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N37" t="n">
-        <v>68.49473839901788</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O37" t="n">
-        <v>63.26597710615633</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P37" t="n">
-        <v>54.13497294959501</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.48024923622368</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R37" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S37" t="n">
-        <v>7.800416652463443</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T37" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9978435019128399</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H38" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I38" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J38" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K38" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L38" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M38" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N38" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O38" t="n">
-        <v>168.1254043329171</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P38" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q38" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R38" t="n">
-        <v>62.68078687703248</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S38" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T38" t="n">
-        <v>4.368059929623459</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H39" t="n">
-        <v>5.156285694000036</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I39" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J39" t="n">
-        <v>50.44121259512024</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K39" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L39" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M39" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N39" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P39" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q39" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R39" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S39" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T39" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03512456194822913</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H40" t="n">
-        <v>3.979555287485266</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I40" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J40" t="n">
-        <v>31.64519577788639</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K40" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L40" t="n">
-        <v>66.545651504636</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M40" t="n">
-        <v>70.16305912281021</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N40" t="n">
-        <v>68.49473839901788</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O40" t="n">
-        <v>63.26597710615633</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P40" t="n">
-        <v>54.13497294959501</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.48024923622368</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R40" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S40" t="n">
-        <v>7.800416652463443</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T40" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9978435019128399</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H41" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I41" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J41" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K41" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L41" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M41" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N41" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O41" t="n">
-        <v>168.1254043329171</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P41" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q41" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R41" t="n">
-        <v>62.68078687703248</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S41" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T41" t="n">
-        <v>4.368059929623459</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U41" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H42" t="n">
-        <v>5.156285694000036</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I42" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J42" t="n">
-        <v>50.44121259512024</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K42" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L42" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M42" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N42" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P42" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q42" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R42" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S42" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T42" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03512456194822913</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H43" t="n">
-        <v>3.979555287485266</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I43" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J43" t="n">
-        <v>31.64519577788639</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K43" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L43" t="n">
-        <v>66.545651504636</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M43" t="n">
-        <v>70.16305912281021</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N43" t="n">
-        <v>68.49473839901788</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O43" t="n">
-        <v>63.26597710615633</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P43" t="n">
-        <v>54.13497294959501</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.48024923622368</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R43" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S43" t="n">
-        <v>7.800416652463443</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T43" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.279081804507766</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H44" t="n">
-        <v>13.09939653041517</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I44" t="n">
-        <v>49.31180126828571</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J44" t="n">
-        <v>108.5604693053411</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K44" t="n">
-        <v>162.7040020901549</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L44" t="n">
-        <v>201.8487018648595</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5955729057745</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N44" t="n">
-        <v>228.2297640828322</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O44" t="n">
-        <v>215.5108943892581</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P44" t="n">
-        <v>183.9335623404725</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.1264452165381</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R44" t="n">
-        <v>80.34712240241105</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S44" t="n">
-        <v>29.14707662022075</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T44" t="n">
-        <v>5.599180599232749</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6843690994590379</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H45" t="n">
-        <v>6.609564723722816</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I45" t="n">
-        <v>23.56270802962039</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J45" t="n">
-        <v>64.65787180459272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K45" t="n">
-        <v>110.5106014683483</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L45" t="n">
-        <v>148.5951415294723</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M45" t="n">
-        <v>173.4035213848624</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N45" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>162.8288181506773</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P45" t="n">
-        <v>130.6844818081035</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.35911522217475</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R45" t="n">
-        <v>42.4909165436059</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S45" t="n">
-        <v>12.7118558605659</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T45" t="n">
-        <v>2.758487729837086</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5737520635384226</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H46" t="n">
-        <v>5.101177437641615</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I46" t="n">
-        <v>17.25428932895548</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J46" t="n">
-        <v>40.56427089216648</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K46" t="n">
-        <v>66.65955792746399</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L46" t="n">
-        <v>85.3012840646124</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M46" t="n">
-        <v>89.9382439235729</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N46" t="n">
-        <v>87.79971350492977</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O46" t="n">
-        <v>81.09724621723089</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P46" t="n">
-        <v>69.39270412104702</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.04391142956737</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R46" t="n">
-        <v>25.79797914782761</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S46" t="n">
-        <v>9.998933689119598</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T46" t="n">
-        <v>2.451486089664169</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
